--- a/course_report/result.xlsx
+++ b/course_report/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\sort_algos_perf\course_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA380AE9-AC55-4E20-B8A5-E47B25F1363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F376C-8FE6-4194-92D6-A282C375E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1e7" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="1e3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1e3'!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1e4'!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1e5'!$A$1:$H$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1e6'!$A$1:$H$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1e7'!$A$1:$H$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -101,7 +105,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="184" formatCode="0.000000_);[Red]\(0.000000\)"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,15 +706,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1132,11 +1168,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G59" sqref="G59:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1146,37 +1183,37 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1195,16 +1232,16 @@
       <c r="F2">
         <v>7.0125012</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f t="shared" ref="G2" si="0">AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f>AVERAGE(F2:F4)</f>
         <v>7.0116845000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1223,10 +1260,10 @@
       <c r="F3">
         <v>7.0148767999999997</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1245,8 +1282,8 @@
       <c r="F4">
         <v>7.0076755000000004</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1267,11 +1304,11 @@
       <c r="F5">
         <v>4.0387912000000004</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" ref="G5" si="1">AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <f>AVERAGE(F5:F7)</f>
         <v>4.0218264666666661</v>
       </c>
@@ -1295,8 +1332,8 @@
       <c r="F6">
         <v>4.0059353</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1317,10 +1354,10 @@
       <c r="F7">
         <v>4.0207528999999997</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1339,16 +1376,16 @@
       <c r="F8">
         <v>5.0091576</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" ref="G8" si="2">AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <f>AVERAGE(F8:F10)</f>
         <v>5.0365396666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1367,10 +1404,10 @@
       <c r="F9">
         <v>5.0492233999999998</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1389,10 +1426,10 @@
       <c r="F10">
         <v>5.0512379999999997</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1411,16 +1448,16 @@
       <c r="F11">
         <v>6.0183647000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <f t="shared" ref="G11" si="3">AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <f>AVERAGE(F11:F13)</f>
         <v>11.028968766666667</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1439,10 +1476,10 @@
       <c r="F12">
         <v>13.0552218</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1461,8 +1498,8 @@
       <c r="F13">
         <v>14.0133198</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1483,11 +1520,11 @@
       <c r="F14">
         <v>4.3478900000000001E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" ref="G14" si="4">AVERAGE(E14:E16)</f>
         <v>9999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <f>AVERAGE(F14:F16)</f>
         <v>3.8812766666666672E-2</v>
       </c>
@@ -1511,8 +1548,8 @@
       <c r="F15">
         <v>3.8330599999999999E-2</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1533,10 +1570,10 @@
       <c r="F16">
         <v>3.4628800000000001E-2</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1555,16 +1592,16 @@
       <c r="F17">
         <v>7.0095641999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" ref="G17" si="5">AVERAGE(E17:E19)</f>
         <v>105907405</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <f>AVERAGE(F17:F19)</f>
         <v>5.3742961666666673</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1583,10 +1620,10 @@
       <c r="F18">
         <v>5.0542894</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1605,10 +1642,10 @@
       <c r="F19">
         <v>4.0590349000000003</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1627,16 +1664,16 @@
       <c r="F20">
         <v>8.0658759999999994</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <f t="shared" ref="G20" si="6">AVERAGE(E20:E22)</f>
         <v>220101636</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <f>AVERAGE(F20:F22)</f>
         <v>8.0628804333333317</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1655,10 +1692,10 @@
       <c r="F21">
         <v>8.0770172999999996</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1677,8 +1714,8 @@
       <c r="F22">
         <v>8.0457479999999997</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1699,11 +1736,11 @@
       <c r="F23">
         <v>3.0534257999999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" ref="G23" si="7">AVERAGE(E23:E25)</f>
         <v>114434624</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="10">
         <f>AVERAGE(F23:F25)</f>
         <v>3.0363753</v>
       </c>
@@ -1727,8 +1764,8 @@
       <c r="F24">
         <v>3.0289633</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1749,10 +1786,10 @@
       <c r="F25">
         <v>3.0267368000000001</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1771,16 +1808,16 @@
       <c r="F26">
         <v>4.0102127000000003</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" ref="G26" si="8">AVERAGE(E26:E28)</f>
         <v>133700913</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="10">
         <f>AVERAGE(F26:F28)</f>
         <v>3.6997755333333338</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1799,10 +1836,10 @@
       <c r="F27">
         <v>3.0890792999999999</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1821,10 +1858,10 @@
       <c r="F28">
         <v>4.0000346000000002</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1843,16 +1880,16 @@
       <c r="F29">
         <v>3.0917021999999998</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <f t="shared" ref="G29" si="9">AVERAGE(E29:E31)</f>
         <v>304914467</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="10">
         <f>AVERAGE(F29:F31)</f>
         <v>3.0944406999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1871,10 +1908,10 @@
       <c r="F30">
         <v>3.0923212000000002</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1893,8 +1930,8 @@
       <c r="F31">
         <v>3.0992986999999999</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1915,11 +1952,11 @@
       <c r="F32">
         <v>8.0875923000000007</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f t="shared" ref="G32" si="10">AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="10">
         <f>AVERAGE(F32:F34)</f>
         <v>7.7326930666666671</v>
       </c>
@@ -1943,8 +1980,8 @@
       <c r="F33">
         <v>7.0571538</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1965,10 +2002,10 @@
       <c r="F34">
         <v>8.0533330999999997</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1987,16 +2024,16 @@
       <c r="F35">
         <v>9.0233878999999995</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f t="shared" ref="G35" si="11">AVERAGE(E35:E37)</f>
         <v>1073741824</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="10">
         <f>AVERAGE(F35:F37)</f>
         <v>8.3816395000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2015,10 +2052,10 @@
       <c r="F36">
         <v>8.0764023999999992</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2037,10 +2074,10 @@
       <c r="F37">
         <v>8.0451282000000006</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2059,16 +2096,16 @@
       <c r="F38">
         <v>7.0849497000000001</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <f t="shared" ref="G38" si="12">AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="10">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0752494000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2087,10 +2124,10 @@
       <c r="F39">
         <v>7.0642908000000002</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2109,8 +2146,8 @@
       <c r="F40">
         <v>7.0765076999999996</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -2131,11 +2168,11 @@
       <c r="F41">
         <v>7.0254513999999997</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f t="shared" ref="G41" si="13">AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="10">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0592663666666668</v>
       </c>
@@ -2159,8 +2196,8 @@
       <c r="F42">
         <v>7.0640473999999998</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2181,10 +2218,10 @@
       <c r="F43">
         <v>7.0883003000000002</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2203,16 +2240,16 @@
       <c r="F44">
         <v>7.0668660000000001</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f t="shared" ref="G44" si="14">AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="10">
         <f>AVERAGE(F44:F46)</f>
         <v>7.3958796333333341</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2231,10 +2268,10 @@
       <c r="F45">
         <v>7.0704332000000001</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2253,10 +2290,10 @@
       <c r="F46">
         <v>8.0503397000000003</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2275,16 +2312,16 @@
       <c r="F47">
         <v>10.045237800000001</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <f t="shared" ref="G47" si="15">AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="10">
         <f>AVERAGE(F47:F49)</f>
         <v>10.018053866666667</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2303,10 +2340,10 @@
       <c r="F48">
         <v>10.0042993</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2325,8 +2362,8 @@
       <c r="F49">
         <v>10.0046245</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2347,11 +2384,11 @@
       <c r="F50">
         <v>7.0770200000000001</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f t="shared" ref="G50" si="16">AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="10">
         <f>AVERAGE(F50:F52)</f>
         <v>7.0677090666666667</v>
       </c>
@@ -2375,8 +2412,8 @@
       <c r="F51">
         <v>7.0624218000000001</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -2397,10 +2434,10 @@
       <c r="F52">
         <v>7.0636853999999998</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="2"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2419,16 +2456,16 @@
       <c r="F53">
         <v>7.0466509000000004</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f t="shared" ref="G53" si="17">AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="10">
         <f>AVERAGE(F53:F55)</f>
         <v>7.0518404666666656</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2447,10 +2484,10 @@
       <c r="F54">
         <v>7.0430630000000001</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="2"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2469,10 +2506,10 @@
       <c r="F55">
         <v>7.0658075</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2491,16 +2528,16 @@
       <c r="F56">
         <v>13.006866</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <f t="shared" ref="G56" si="18">AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="10">
         <f>AVERAGE(F56:F58)</f>
         <v>11.710888599999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2519,10 +2556,10 @@
       <c r="F57">
         <v>11.0269029</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2541,8 +2578,8 @@
       <c r="F58">
         <v>11.0988969</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2563,11 +2600,11 @@
       <c r="F59">
         <v>5.4139699999999999E-2</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f t="shared" ref="G59" si="19">AVERAGE(E59:E61)</f>
         <v>9999999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="10">
         <f>AVERAGE(F59:F61)</f>
         <v>5.4276033333333334E-2</v>
       </c>
@@ -2591,8 +2628,8 @@
       <c r="F60">
         <v>5.3629200000000002E-2</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2613,10 +2650,10 @@
       <c r="F61">
         <v>5.5059200000000003E-2</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -2635,16 +2672,16 @@
       <c r="F62">
         <v>12.013462799999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f t="shared" ref="G62" si="20">AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="10">
         <f>AVERAGE(F62:F64)</f>
         <v>11.695745866666668</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -2663,10 +2700,10 @@
       <c r="F63">
         <v>13.0022322</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="2"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2685,31 +2722,24 @@
       <c r="F64">
         <v>10.071542600000001</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="rising"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="H59:H61"/>
@@ -2726,12 +2756,26 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2744,11 +2788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2758,36 +2803,37 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2806,16 +2852,16 @@
       <c r="F2">
         <v>6.0690442000000004</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f t="shared" ref="G2" si="0">AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f>AVERAGE(F2:F4)</f>
         <v>6.0775342666666674</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2834,10 +2880,10 @@
       <c r="F3">
         <v>6.0752445000000002</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2856,10 +2902,10 @@
       <c r="F4">
         <v>6.0883140999999998</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2878,16 +2924,16 @@
       <c r="F5">
         <v>4.0087073999999996</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" ref="G5" si="1">AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <f>AVERAGE(F5:F7)</f>
         <v>4.0313111666666659</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2906,10 +2952,10 @@
       <c r="F6">
         <v>4.0309004000000002</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2928,8 +2974,8 @@
       <c r="F7">
         <v>4.0543256999999997</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2950,11 +2996,11 @@
       <c r="F8">
         <v>4.0173405999999998</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" ref="G8" si="2">AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <f>AVERAGE(F8:F10)</f>
         <v>6.7075359666666658</v>
       </c>
@@ -2978,8 +3024,8 @@
       <c r="F9">
         <v>4.0169037000000003</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3000,10 +3046,10 @@
       <c r="F10">
         <v>12.088363599999999</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3022,16 +3068,16 @@
       <c r="F11">
         <v>13.0728054</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <f t="shared" ref="G11" si="3">AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <f>AVERAGE(F11:F13)</f>
         <v>13.070870233333332</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3050,10 +3096,10 @@
       <c r="F12">
         <v>13.066137899999999</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3072,10 +3118,10 @@
       <c r="F13">
         <v>13.0736674</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3094,16 +3140,16 @@
       <c r="F14">
         <v>4.2788000000000001E-3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" ref="G14" si="4">AVERAGE(E14:E16)</f>
         <v>999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <f>AVERAGE(F14:F16)</f>
         <v>4.3042000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3122,10 +3168,10 @@
       <c r="F15">
         <v>4.3280999999999997E-3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3144,8 +3190,8 @@
       <c r="F16">
         <v>4.3057E-3</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3166,11 +3212,11 @@
       <c r="F17">
         <v>7.8823699999999997E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" ref="G17" si="5">AVERAGE(E17:E19)</f>
         <v>12490802.333333334</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <f>AVERAGE(F17:F19)</f>
         <v>6.7337233333333343E-2</v>
       </c>
@@ -3194,8 +3240,8 @@
       <c r="F18">
         <v>6.4471500000000001E-2</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -3216,10 +3262,10 @@
       <c r="F19">
         <v>5.8716499999999998E-2</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3238,16 +3284,16 @@
       <c r="F20">
         <v>3.0169389</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <f t="shared" ref="G20" si="6">AVERAGE(E20:E22)</f>
         <v>18674575.333333332</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <f>AVERAGE(F20:F22)</f>
         <v>3.0139125666666668</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3266,10 +3312,10 @@
       <c r="F21">
         <v>3.0110573</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3288,10 +3334,10 @@
       <c r="F22">
         <v>3.0137415000000001</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3310,16 +3356,16 @@
       <c r="F23">
         <v>1.0925799</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f t="shared" ref="G23" si="7">AVERAGE(E23:E25)</f>
         <v>9884992</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="10">
         <f>AVERAGE(F23:F25)</f>
         <v>1.0926069333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3338,10 +3384,10 @@
       <c r="F24">
         <v>1.0915849</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3360,8 +3406,8 @@
       <c r="F25">
         <v>1.093656</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3382,11 +3428,11 @@
       <c r="F26">
         <v>1.0946473000000001</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" ref="G26" si="8">AVERAGE(E26:E28)</f>
         <v>11888393</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="10">
         <f>AVERAGE(F26:F28)</f>
         <v>1.0960243666666667</v>
       </c>
@@ -3410,8 +3456,8 @@
       <c r="F27">
         <v>1.0942259000000001</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3432,10 +3478,10 @@
       <c r="F28">
         <v>1.0991998999999999</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3454,16 +3500,16 @@
       <c r="F29">
         <v>1.0928742</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <f t="shared" ref="G29" si="9">AVERAGE(E29:E31)</f>
         <v>25436636.333333332</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="10">
         <f>AVERAGE(F29:F31)</f>
         <v>1.0904193666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3482,10 +3528,10 @@
       <c r="F30">
         <v>1.0922487999999999</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3504,10 +3550,10 @@
       <c r="F31">
         <v>1.0861350999999999</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3526,16 +3572,16 @@
       <c r="F32">
         <v>8.0319774000000006</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f t="shared" ref="G32" si="10">AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="10">
         <f>AVERAGE(F32:F34)</f>
         <v>8.0286405333333342</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3554,10 +3600,10 @@
       <c r="F33">
         <v>8.0275379999999998</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3576,8 +3622,8 @@
       <c r="F34">
         <v>8.0264062000000003</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -3598,11 +3644,11 @@
       <c r="F35">
         <v>8.0206654999999998</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f t="shared" ref="G35" si="11">AVERAGE(E35:E37)</f>
         <v>1073741824</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="10">
         <f>AVERAGE(F35:F37)</f>
         <v>7.7106437666666663</v>
       </c>
@@ -3626,8 +3672,8 @@
       <c r="F36">
         <v>8.0160620999999992</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -3648,10 +3694,10 @@
       <c r="F37">
         <v>7.0952036999999999</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3670,16 +3716,16 @@
       <c r="F38">
         <v>7.0650202000000002</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <f t="shared" ref="G38" si="12">AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="10">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0481626999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3698,10 +3744,10 @@
       <c r="F39">
         <v>7.0405841999999996</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3720,10 +3766,10 @@
       <c r="F40">
         <v>7.0388837000000004</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3742,16 +3788,16 @@
       <c r="F41">
         <v>7.0323634999999998</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f t="shared" ref="G41" si="13">AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="10">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0413974000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3770,10 +3816,10 @@
       <c r="F42">
         <v>7.0454556999999998</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3792,8 +3838,8 @@
       <c r="F43">
         <v>7.046373</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -3814,11 +3860,11 @@
       <c r="F44">
         <v>7.0400691999999996</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f t="shared" ref="G44" si="14">AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="10">
         <f>AVERAGE(F44:F46)</f>
         <v>7.0429902999999996</v>
       </c>
@@ -3842,8 +3888,8 @@
       <c r="F45">
         <v>7.0436415999999999</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -3864,10 +3910,10 @@
       <c r="F46">
         <v>7.0452601000000001</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3886,16 +3932,16 @@
       <c r="F47">
         <v>1.0681402</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <f t="shared" ref="G47" si="15">AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="10">
         <f>AVERAGE(F47:F49)</f>
         <v>1.0678673333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3914,10 +3960,10 @@
       <c r="F48">
         <v>1.0673632</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3936,10 +3982,10 @@
       <c r="F49">
         <v>1.0680985999999999</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3958,16 +4004,16 @@
       <c r="F50">
         <v>6.4830600000000002E-2</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f t="shared" ref="G50" si="16">AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="10">
         <f>AVERAGE(F50:F52)</f>
         <v>6.5257699999999988E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3986,10 +4032,10 @@
       <c r="F51">
         <v>6.5026200000000006E-2</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -4008,8 +4054,8 @@
       <c r="F52">
         <v>6.5916299999999997E-2</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -4030,11 +4076,11 @@
       <c r="F53">
         <v>6.94713E-2</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f t="shared" ref="G53" si="17">AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="10">
         <f>AVERAGE(F53:F55)</f>
         <v>7.0738866666666664E-2</v>
       </c>
@@ -4058,8 +4104,8 @@
       <c r="F54">
         <v>7.6186100000000007E-2</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -4080,10 +4126,10 @@
       <c r="F55">
         <v>6.6559199999999999E-2</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4102,16 +4148,16 @@
       <c r="F56">
         <v>14.038278399999999</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <f t="shared" ref="G56" si="18">AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="10">
         <f>AVERAGE(F56:F58)</f>
         <v>13.703621699999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4130,10 +4176,10 @@
       <c r="F57">
         <v>13.070034400000001</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -4152,10 +4198,10 @@
       <c r="F58">
         <v>14.0025523</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4174,16 +4220,16 @@
       <c r="F59">
         <v>5.9189999999999998E-3</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f t="shared" ref="G59" si="19">AVERAGE(E59:E61)</f>
         <v>999999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="10">
         <f>AVERAGE(F59:F61)</f>
         <v>6.0183333333333339E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -4202,10 +4248,10 @@
       <c r="F60">
         <v>6.2192000000000002E-3</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4224,8 +4270,8 @@
       <c r="F61">
         <v>5.9167999999999998E-3</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -4246,11 +4292,11 @@
       <c r="F62">
         <v>10.0870876</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f t="shared" ref="G62" si="20">AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="10">
         <f>AVERAGE(F62:F64)</f>
         <v>11.389746066666667</v>
       </c>
@@ -4274,8 +4320,8 @@
       <c r="F63">
         <v>11.0579585</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -4296,53 +4342,60 @@
       <c r="F64">
         <v>13.0241921</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="almost rising"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="42">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
     <mergeCell ref="G56:G58"/>
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="G59:G61"/>
     <mergeCell ref="H59:H61"/>
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -4355,11 +4408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H35" sqref="H35:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4369,36 +4423,37 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4417,16 +4472,16 @@
       <c r="F2">
         <v>14.028219</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f>AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f>AVERAGE(F2:F4)</f>
         <v>13.730024366666669</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4445,10 +4500,10 @@
       <c r="F3">
         <v>14.0892739</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4467,10 +4522,10 @@
       <c r="F4">
         <v>13.072580200000001</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4489,16 +4544,16 @@
       <c r="F5">
         <v>12.0502176</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f>AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <f>AVERAGE(F5:F7)</f>
         <v>12.058050733333332</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4517,10 +4572,10 @@
       <c r="F6">
         <v>12.0874115</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4539,8 +4594,8 @@
       <c r="F7">
         <v>12.0365231</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4561,11 +4616,11 @@
       <c r="F8">
         <v>12.082176799999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f>AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <f>AVERAGE(F8:F10)</f>
         <v>12.082078333333333</v>
       </c>
@@ -4589,8 +4644,8 @@
       <c r="F9">
         <v>12.068728999999999</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4611,10 +4666,10 @@
       <c r="F10">
         <v>12.0953292</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4633,16 +4688,16 @@
       <c r="F11">
         <v>13.0599697</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <f>AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <f>AVERAGE(F11:F13)</f>
         <v>13.070796666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4661,10 +4716,10 @@
       <c r="F12">
         <v>13.0784167</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4683,10 +4738,10 @@
       <c r="F13">
         <v>13.074003599999999</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4705,16 +4760,16 @@
       <c r="F14">
         <v>1.738E-4</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f>AVERAGE(E14:E16)</f>
         <v>99999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <f>AVERAGE(F14:F16)</f>
         <v>3.0176666666666667E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4733,10 +4788,10 @@
       <c r="F15">
         <v>3.6680000000000003E-4</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4755,8 +4810,8 @@
       <c r="F16">
         <v>3.6469999999999997E-4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -4777,11 +4832,11 @@
       <c r="F17">
         <v>6.7993000000000003E-3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f>AVERAGE(E17:E19)</f>
         <v>1229617.6666666667</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <f>AVERAGE(F17:F19)</f>
         <v>6.6476E-3</v>
       </c>
@@ -4805,8 +4860,8 @@
       <c r="F18">
         <v>5.5985999999999996E-3</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -4827,10 +4882,10 @@
       <c r="F19">
         <v>7.5449000000000002E-3</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4849,16 +4904,16 @@
       <c r="F20">
         <v>2.5747699999999998E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <f>AVERAGE(E20:E22)</f>
         <v>1536374</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <f>AVERAGE(F20:F22)</f>
         <v>2.6943433333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4877,10 +4932,10 @@
       <c r="F21">
         <v>2.7601299999999999E-2</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4899,10 +4954,10 @@
       <c r="F22">
         <v>2.74813E-2</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4921,16 +4976,16 @@
       <c r="F23">
         <v>1.6707199999999998E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f>AVERAGE(E23:E25)</f>
         <v>815024</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="10">
         <f>AVERAGE(F23:F25)</f>
         <v>1.6817300000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4949,10 +5004,10 @@
       <c r="F24">
         <v>1.6965600000000001E-2</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4971,8 +5026,8 @@
       <c r="F25">
         <v>1.6779100000000002E-2</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4993,11 +5048,11 @@
       <c r="F26">
         <v>1.6865000000000002E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f>AVERAGE(E26:E28)</f>
         <v>998855.66666666663</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="10">
         <f>AVERAGE(F26:F28)</f>
         <v>1.7265700000000002E-2</v>
       </c>
@@ -5021,8 +5076,8 @@
       <c r="F27">
         <v>1.7286599999999999E-2</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5043,10 +5098,10 @@
       <c r="F28">
         <v>1.7645500000000001E-2</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5065,16 +5120,16 @@
       <c r="F29">
         <v>1.56023E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <f>AVERAGE(E29:E31)</f>
         <v>2124602.6666666665</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="10">
         <f>AVERAGE(F29:F31)</f>
         <v>1.5638266666666668E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5093,10 +5148,10 @@
       <c r="F30">
         <v>1.54798E-2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5115,10 +5170,10 @@
       <c r="F31">
         <v>1.5832700000000002E-2</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -5137,16 +5192,16 @@
       <c r="F32">
         <v>7.0873485000000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f>AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="10">
         <f>AVERAGE(F32:F34)</f>
         <v>7.0887216999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -5165,10 +5220,10 @@
       <c r="F33">
         <v>7.0911182999999998</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -5187,8 +5242,8 @@
       <c r="F34">
         <v>7.0876982999999996</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -5209,11 +5264,11 @@
       <c r="F35">
         <v>7.0809534000000003</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f>AVERAGE(E35:E37)</f>
         <v>828325880.33333337</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="10">
         <f>AVERAGE(F35:F37)</f>
         <v>6.7407239666666667</v>
       </c>
@@ -5237,8 +5292,8 @@
       <c r="F36">
         <v>5.0989693000000003</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -5259,10 +5314,10 @@
       <c r="F37">
         <v>8.0422492000000005</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5281,16 +5336,16 @@
       <c r="F38">
         <v>7.0276953000000004</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <f>AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="10">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0274220000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5309,10 +5364,10 @@
       <c r="F39">
         <v>7.0359800999999997</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5331,10 +5386,10 @@
       <c r="F40">
         <v>7.0185905999999996</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -5353,16 +5408,16 @@
       <c r="F41">
         <v>7.0344543000000002</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f>AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="10">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0315838333333334</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -5381,10 +5436,10 @@
       <c r="F42">
         <v>7.0239824999999998</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -5403,8 +5458,8 @@
       <c r="F43">
         <v>7.0363147000000001</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -5425,11 +5480,11 @@
       <c r="F44">
         <v>7.0221710000000002</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f>AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="10">
         <f>AVERAGE(F44:F46)</f>
         <v>7.0196128333333334</v>
       </c>
@@ -5453,8 +5508,8 @@
       <c r="F45">
         <v>7.0224663999999999</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -5475,10 +5530,10 @@
       <c r="F46">
         <v>7.0142011000000002</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -5497,16 +5552,16 @@
       <c r="F47">
         <v>1.4073E-2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="10">
         <f>AVERAGE(F47:F49)</f>
         <v>1.4345200000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -5525,10 +5580,10 @@
       <c r="F48">
         <v>1.4605399999999999E-2</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -5547,10 +5602,10 @@
       <c r="F49">
         <v>1.4357200000000001E-2</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -5569,16 +5624,16 @@
       <c r="F50">
         <v>5.4318999999999999E-3</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="10">
         <f>AVERAGE(F50:F52)</f>
         <v>5.4246333333333339E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -5597,10 +5652,10 @@
       <c r="F51">
         <v>5.3883999999999998E-3</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -5619,8 +5674,8 @@
       <c r="F52">
         <v>5.4536000000000003E-3</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -5641,11 +5696,11 @@
       <c r="F53">
         <v>5.4311999999999997E-3</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="10">
         <f>AVERAGE(F53:F55)</f>
         <v>6.3694000000000008E-3</v>
       </c>
@@ -5669,8 +5724,8 @@
       <c r="F54">
         <v>8.4468000000000008E-3</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -5691,10 +5746,10 @@
       <c r="F55">
         <v>5.2302E-3</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5713,16 +5768,16 @@
       <c r="F56">
         <v>10.0980153</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="10">
         <f>AVERAGE(F56:F58)</f>
         <v>11.709166033333334</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -5741,10 +5796,10 @@
       <c r="F57">
         <v>12.0063169</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -5763,10 +5818,10 @@
       <c r="F58">
         <v>13.0231659</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -5785,16 +5840,16 @@
       <c r="F59">
         <v>4.394E-4</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f>AVERAGE(E59:E61)</f>
         <v>99999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="10">
         <f>AVERAGE(F59:F61)</f>
         <v>3.8516666666666663E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -5813,10 +5868,10 @@
       <c r="F60">
         <v>4.9580000000000002E-4</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -5835,8 +5890,8 @@
       <c r="F61">
         <v>2.2029999999999999E-4</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -5857,11 +5912,11 @@
       <c r="F62">
         <v>12.029726699999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="10">
         <f>AVERAGE(F62:F64)</f>
         <v>11.379926566666667</v>
       </c>
@@ -5885,8 +5940,8 @@
       <c r="F63">
         <v>11.0494725</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -5907,26 +5962,27 @@
       <c r="F64">
         <v>11.0605805</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="almost rising"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
     <mergeCell ref="H62:H64"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="H41:H43"/>
@@ -5934,6 +5990,11 @@
     <mergeCell ref="H47:H49"/>
     <mergeCell ref="H50:H52"/>
     <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G13"/>
@@ -5945,15 +6006,16 @@
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -5966,11 +6028,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5980,37 +6043,37 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6029,16 +6092,16 @@
       <c r="F2">
         <v>3.0086871999999998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f>AVERAGE(E2:E4)</f>
         <v>49995000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f>AVERAGE(F2:F4)</f>
         <v>2.7028355333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6057,10 +6120,10 @@
       <c r="F3">
         <v>2.0950410000000002</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6079,10 +6142,10 @@
       <c r="F4">
         <v>3.0047784000000002</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6101,16 +6164,16 @@
       <c r="F5">
         <v>1.0819935000000001</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f>AVERAGE(E5:E7)</f>
         <v>49995000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <f>AVERAGE(F5:F7)</f>
         <v>1.0841984333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6129,10 +6192,10 @@
       <c r="F6">
         <v>1.0791713000000001</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6151,8 +6214,8 @@
       <c r="F7">
         <v>1.0914305</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6173,11 +6236,11 @@
       <c r="F8">
         <v>1.0915992999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f>AVERAGE(E8:E10)</f>
         <v>49995000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <f>AVERAGE(F8:F10)</f>
         <v>1.0867183999999999</v>
       </c>
@@ -6201,8 +6264,8 @@
       <c r="F9">
         <v>1.0850242000000001</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6223,10 +6286,10 @@
       <c r="F10">
         <v>1.0835317</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6245,16 +6308,16 @@
       <c r="F11">
         <v>1.0362203999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <f>AVERAGE(E11:E13)</f>
         <v>25049776.666666668</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <f>AVERAGE(F11:F13)</f>
         <v>1.0367352999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6273,10 +6336,10 @@
       <c r="F12">
         <v>1.0362562</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6295,10 +6358,10 @@
       <c r="F13">
         <v>1.0377293000000001</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6317,16 +6380,16 @@
       <c r="F14">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f>AVERAGE(E14:E16)</f>
         <v>9999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="10">
         <f>AVERAGE(F14:F16)</f>
         <v>3.6699999999999998E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6345,10 +6408,10 @@
       <c r="F15">
         <v>3.6600000000000002E-5</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6367,8 +6430,8 @@
       <c r="F16">
         <v>3.65E-5</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6389,11 +6452,11 @@
       <c r="F17">
         <v>6.2149999999999998E-4</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f>AVERAGE(E17:E19)</f>
         <v>120081</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="10">
         <f>AVERAGE(F17:F19)</f>
         <v>6.6629999999999999E-4</v>
       </c>
@@ -6417,8 +6480,8 @@
       <c r="F18">
         <v>6.5260000000000003E-4</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6439,10 +6502,10 @@
       <c r="F19">
         <v>7.2480000000000005E-4</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6461,16 +6524,16 @@
       <c r="F20">
         <v>2.3157999999999998E-3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <f>AVERAGE(E20:E22)</f>
         <v>120438.66666666667</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <f>AVERAGE(F20:F22)</f>
         <v>2.2698999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6489,10 +6552,10 @@
       <c r="F21">
         <v>2.2407999999999998E-3</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6511,10 +6574,10 @@
       <c r="F22">
         <v>2.2531000000000001E-3</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6533,16 +6596,16 @@
       <c r="F23">
         <v>1.57E-3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f>AVERAGE(E23:E25)</f>
         <v>64608</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="10">
         <f>AVERAGE(F23:F25)</f>
         <v>1.5501999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6561,10 +6624,10 @@
       <c r="F24">
         <v>1.5357999999999999E-3</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6583,8 +6646,8 @@
       <c r="F25">
         <v>1.5448E-3</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6605,11 +6668,11 @@
       <c r="F26">
         <v>1.603E-3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f>AVERAGE(E26:E28)</f>
         <v>83297.333333333328</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="10">
         <f>AVERAGE(F26:F28)</f>
         <v>1.5884333333333334E-3</v>
       </c>
@@ -6633,8 +6696,8 @@
       <c r="F27">
         <v>1.5865E-3</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -6655,10 +6718,10 @@
       <c r="F28">
         <v>1.5758E-3</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -6677,16 +6740,16 @@
       <c r="F29">
         <v>1.2928E-3</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <f>AVERAGE(E29:E31)</f>
         <v>166669.66666666666</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="10">
         <f>AVERAGE(F29:F31)</f>
         <v>1.2942666666666666E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6705,10 +6768,10 @@
       <c r="F30">
         <v>1.3189E-3</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -6727,10 +6790,10 @@
       <c r="F31">
         <v>1.2711000000000001E-3</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -6749,16 +6812,16 @@
       <c r="F32">
         <v>2.0837854</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f>AVERAGE(E32:E34)</f>
         <v>50005000</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="10">
         <f>AVERAGE(F32:F34)</f>
         <v>2.0861580666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -6777,10 +6840,10 @@
       <c r="F33">
         <v>2.0865596000000002</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -6799,8 +6862,8 @@
       <c r="F34">
         <v>2.0881292</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -6821,11 +6884,11 @@
       <c r="F35">
         <v>5.3520699999999997E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f>AVERAGE(E35:E37)</f>
         <v>10540166.666666666</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="10">
         <f>AVERAGE(F35:F37)</f>
         <v>5.5785833333333333E-2</v>
       </c>
@@ -6849,8 +6912,8 @@
       <c r="F36">
         <v>3.1666600000000003E-2</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -6871,10 +6934,10 @@
       <c r="F37">
         <v>8.2170199999999999E-2</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -6893,16 +6956,16 @@
       <c r="F38">
         <v>2.0433838999999998</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <f>AVERAGE(E38:E40)</f>
         <v>49995000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="10">
         <f>AVERAGE(F38:F40)</f>
         <v>2.0427861666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -6921,10 +6984,10 @@
       <c r="F39">
         <v>2.0420281</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -6943,10 +7006,10 @@
       <c r="F40">
         <v>2.0429465000000002</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -6965,16 +7028,16 @@
       <c r="F41">
         <v>2.0420753999999999</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f>AVERAGE(E41:E43)</f>
         <v>49995000</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="10">
         <f>AVERAGE(F41:F43)</f>
         <v>2.0429194666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -6993,10 +7056,10 @@
       <c r="F42">
         <v>2.0432532999999999</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -7015,8 +7078,8 @@
       <c r="F43">
         <v>2.0434296999999999</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -7037,11 +7100,11 @@
       <c r="F44">
         <v>2.0424547</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f>AVERAGE(E44:E46)</f>
         <v>49995000</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="10">
         <f>AVERAGE(F44:F46)</f>
         <v>2.0427607666666669</v>
       </c>
@@ -7065,8 +7128,8 @@
       <c r="F45">
         <v>2.0430163000000001</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -7087,10 +7150,10 @@
       <c r="F46">
         <v>2.0428112999999999</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -7109,16 +7172,16 @@
       <c r="F47">
         <v>1.8954E-3</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="10">
         <f>AVERAGE(F47:F49)</f>
         <v>1.3832333333333334E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -7137,10 +7200,10 @@
       <c r="F48">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -7159,10 +7222,10 @@
       <c r="F49">
         <v>8.7429999999999995E-4</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -7181,16 +7244,16 @@
       <c r="F50">
         <v>4.057E-4</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="10">
         <f>AVERAGE(F50:F52)</f>
         <v>4.2886666666666672E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -7209,10 +7272,10 @@
       <c r="F51">
         <v>4.4729999999999998E-4</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="2"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -7231,8 +7294,8 @@
       <c r="F52">
         <v>4.3360000000000002E-4</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -7253,11 +7316,11 @@
       <c r="F53">
         <v>4.615E-4</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="10">
         <f>AVERAGE(F53:F55)</f>
         <v>4.5106666666666666E-4</v>
       </c>
@@ -7281,8 +7344,8 @@
       <c r="F54">
         <v>4.4529999999999998E-4</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -7303,10 +7366,10 @@
       <c r="F55">
         <v>4.4640000000000001E-4</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="2"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7325,16 +7388,16 @@
       <c r="F56">
         <v>11.074100100000001</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="10">
         <f>AVERAGE(F56:F58)</f>
         <v>11.071494833333333</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -7353,10 +7416,10 @@
       <c r="F57">
         <v>11.0847684</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -7375,10 +7438,10 @@
       <c r="F58">
         <v>11.055616000000001</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -7397,16 +7460,16 @@
       <c r="F59">
         <v>5.9899999999999999E-5</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f>AVERAGE(E59:E61)</f>
         <v>9999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="10">
         <f>AVERAGE(F59:F61)</f>
         <v>5.3933333333333334E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -7425,10 +7488,10 @@
       <c r="F60">
         <v>4.3099999999999997E-5</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="2"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -7447,8 +7510,8 @@
       <c r="F61">
         <v>5.8799999999999999E-5</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -7469,11 +7532,11 @@
       <c r="F62">
         <v>12.087991799999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="10">
         <f>AVERAGE(F62:F64)</f>
         <v>10.738459533333332</v>
       </c>
@@ -7497,8 +7560,8 @@
       <c r="F63">
         <v>10.037884200000001</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -7519,32 +7582,33 @@
       <c r="F64">
         <v>10.089502599999999</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="almost rising"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H50:H52"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H19"/>
@@ -7556,16 +7620,22 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -7578,11 +7648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7592,37 +7663,37 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7641,16 +7712,16 @@
       <c r="F2">
         <v>1.1322000000000001E-3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f>AVERAGE(E2:E4)</f>
         <v>499500</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <f>AVERAGE(F2:F4)</f>
         <v>1.1406333333333334E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7669,10 +7740,10 @@
       <c r="F3">
         <v>1.1218999999999999E-3</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7691,10 +7762,10 @@
       <c r="F4">
         <v>1.1678000000000001E-3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7713,16 +7784,16 @@
       <c r="F5">
         <v>7.2309999999999996E-4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <f>AVERAGE(E5:E7)</f>
         <v>499500</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <f>AVERAGE(F5:F7)</f>
         <v>7.4243333333333329E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7741,10 +7812,10 @@
       <c r="F6">
         <v>8.0369999999999997E-4</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7763,8 +7834,8 @@
       <c r="F7">
         <v>7.0049999999999995E-4</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7785,11 +7856,11 @@
       <c r="F8">
         <v>8.6740000000000005E-4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <f>AVERAGE(E8:E10)</f>
         <v>499500</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <f>AVERAGE(F8:F10)</f>
         <v>8.3186666666666654E-4</v>
       </c>
@@ -7813,8 +7884,8 @@
       <c r="F9">
         <v>7.6559999999999996E-4</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7835,10 +7906,10 @@
       <c r="F10">
         <v>8.6260000000000004E-4</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7857,16 +7928,16 @@
       <c r="F11">
         <v>6.2350000000000003E-4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <f>AVERAGE(E11:E13)</f>
         <v>255615.33333333334</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <f>AVERAGE(F11:F13)</f>
         <v>6.5173333333333342E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7885,10 +7956,10 @@
       <c r="F12">
         <v>7.0830000000000003E-4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -7907,10 +7978,10 @@
       <c r="F13">
         <v>6.2339999999999997E-4</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -7929,16 +8000,16 @@
       <c r="F14">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <f>AVERAGE(E14:E16)</f>
         <v>999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <f>AVERAGE(F14:F16)</f>
         <v>1.5333333333333334E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -7957,10 +8028,10 @@
       <c r="F15">
         <v>1.5E-6</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -7979,8 +8050,8 @@
       <c r="F16">
         <v>1.5E-6</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8001,11 +8072,11 @@
       <c r="F17">
         <v>2.44E-5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <f>AVERAGE(E17:E19)</f>
         <v>10649</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <f>AVERAGE(F17:F19)</f>
         <v>2.6466666666666665E-5</v>
       </c>
@@ -8029,8 +8100,8 @@
       <c r="F18">
         <v>3.5599999999999998E-5</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8051,10 +8122,10 @@
       <c r="F19">
         <v>1.9400000000000001E-5</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -8073,16 +8144,16 @@
       <c r="F20">
         <v>1.011E-4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <f>AVERAGE(E20:E22)</f>
         <v>8714.6666666666661</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <f>AVERAGE(F20:F22)</f>
         <v>9.6133333333333344E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -8101,10 +8172,10 @@
       <c r="F21">
         <v>9.3900000000000006E-5</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -8123,10 +8194,10 @@
       <c r="F22">
         <v>9.3399999999999993E-5</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -8145,16 +8216,16 @@
       <c r="F23">
         <v>5.6799999999999998E-5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <f>AVERAGE(E23:E25)</f>
         <v>4932</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <f>AVERAGE(F23:F25)</f>
         <v>5.4266666666666667E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -8173,10 +8244,10 @@
       <c r="F24">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -8195,8 +8266,8 @@
       <c r="F25">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -8217,11 +8288,11 @@
       <c r="F26">
         <v>6.3E-5</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <f>AVERAGE(E26:E28)</f>
         <v>6804</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <f>AVERAGE(F26:F28)</f>
         <v>5.9999999999999995E-5</v>
       </c>
@@ -8245,8 +8316,8 @@
       <c r="F27">
         <v>5.8199999999999998E-5</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -8267,10 +8338,10 @@
       <c r="F28">
         <v>5.8799999999999999E-5</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -8289,16 +8360,16 @@
       <c r="F29">
         <v>1.3119999999999999E-4</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <f>AVERAGE(E29:E31)</f>
         <v>11757.666666666666</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <f>AVERAGE(F29:F31)</f>
         <v>9.9233333333333338E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -8317,10 +8388,10 @@
       <c r="F30">
         <v>8.6100000000000006E-5</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -8339,10 +8410,10 @@
       <c r="F31">
         <v>8.0400000000000003E-5</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -8361,16 +8432,16 @@
       <c r="F32">
         <v>1.1923000000000001E-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="7">
         <f>AVERAGE(E32:E34)</f>
         <v>500500</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <f>AVERAGE(F32:F34)</f>
         <v>1.2150333333333333E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -8389,10 +8460,10 @@
       <c r="F33">
         <v>1.2511E-3</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -8411,8 +8482,8 @@
       <c r="F34">
         <v>1.2017E-3</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -8433,11 +8504,11 @@
       <c r="F35">
         <v>3.3530000000000002E-4</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="7">
         <f>AVERAGE(E35:E37)</f>
         <v>121390.66666666667</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <f>AVERAGE(F35:F37)</f>
         <v>2.6903333333333333E-4</v>
       </c>
@@ -8461,8 +8532,8 @@
       <c r="F36">
         <v>3.7090000000000002E-4</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -8483,10 +8554,10 @@
       <c r="F37">
         <v>1.009E-4</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -8505,16 +8576,16 @@
       <c r="F38">
         <v>1.5953E-3</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="7">
         <f>AVERAGE(E38:E40)</f>
         <v>499500</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <f>AVERAGE(F38:F40)</f>
         <v>1.5891666666666667E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -8533,10 +8604,10 @@
       <c r="F39">
         <v>1.5885000000000001E-3</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="7"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -8555,10 +8626,10 @@
       <c r="F40">
         <v>1.5837E-3</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="7"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -8577,16 +8648,16 @@
       <c r="F41">
         <v>1.5873E-3</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="7">
         <f>AVERAGE(E41:E43)</f>
         <v>499500</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="4">
         <f>AVERAGE(F41:F43)</f>
         <v>1.6281666666666667E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -8605,10 +8676,10 @@
       <c r="F42">
         <v>1.5885000000000001E-3</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="7"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -8627,8 +8698,8 @@
       <c r="F43">
         <v>1.7087000000000001E-3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -8649,11 +8720,11 @@
       <c r="F44">
         <v>1.6605999999999999E-3</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="7">
         <f>AVERAGE(E44:E46)</f>
         <v>499500</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="4">
         <f>AVERAGE(F44:F46)</f>
         <v>1.6012666666666668E-3</v>
       </c>
@@ -8677,8 +8748,8 @@
       <c r="F45">
         <v>1.5648999999999999E-3</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -8699,10 +8770,10 @@
       <c r="F46">
         <v>1.5782999999999999E-3</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="7"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -8721,16 +8792,16 @@
       <c r="F47">
         <v>5.1499999999999998E-5</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="7">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="4">
         <f>AVERAGE(F47:F49)</f>
         <v>5.0899999999999997E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -8749,10 +8820,10 @@
       <c r="F48">
         <v>5.0800000000000002E-5</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -8771,10 +8842,10 @@
       <c r="F49">
         <v>5.0399999999999999E-5</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -8793,16 +8864,16 @@
       <c r="F50">
         <v>1.5800000000000001E-5</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="7">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="4">
         <f>AVERAGE(F50:F52)</f>
         <v>1.5466666666666669E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -8821,10 +8892,10 @@
       <c r="F51">
         <v>1.5400000000000002E-5</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="7"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -8843,8 +8914,8 @@
       <c r="F52">
         <v>1.52E-5</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -8865,11 +8936,11 @@
       <c r="F53">
         <v>1.63E-5</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="7">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="4">
         <f>AVERAGE(F53:F55)</f>
         <v>1.5933333333333332E-5</v>
       </c>
@@ -8893,8 +8964,8 @@
       <c r="F54">
         <v>1.5800000000000001E-5</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -8915,10 +8986,10 @@
       <c r="F55">
         <v>1.5699999999999999E-5</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -8937,16 +9008,16 @@
       <c r="F56">
         <v>7.0679952000000004</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="7">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="4">
         <f>AVERAGE(F56:F58)</f>
         <v>8.7398267000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -8965,10 +9036,10 @@
       <c r="F57">
         <v>7.0730753999999996</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -8987,10 +9058,10 @@
       <c r="F58">
         <v>12.078409499999999</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -9009,16 +9080,16 @@
       <c r="F59">
         <v>4.4000000000000002E-6</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="7">
         <f>AVERAGE(E59:E61)</f>
         <v>999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="4">
         <f>AVERAGE(F59:F61)</f>
         <v>3.7333333333333337E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -9037,10 +9108,10 @@
       <c r="F60">
         <v>3.3000000000000002E-6</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="7"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -9059,8 +9130,8 @@
       <c r="F61">
         <v>3.4999999999999999E-6</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -9081,11 +9152,11 @@
       <c r="F62">
         <v>12.014736900000001</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="7">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="4">
         <f>AVERAGE(F62:F64)</f>
         <v>11.397015633333334</v>
       </c>
@@ -9109,8 +9180,8 @@
       <c r="F63">
         <v>11.0792891</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -9131,53 +9202,60 @@
       <c r="F64">
         <v>11.0970209</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="almost rising"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="42">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
     <mergeCell ref="G56:G58"/>
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="G59:G61"/>
     <mergeCell ref="H59:H61"/>
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="H62:H64"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">

--- a/course_report/result.xlsx
+++ b/course_report/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\sort_algos_perf\course_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F376C-8FE6-4194-92D6-A282C375E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CDED7-FB00-4D6C-96FB-5D342805E9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1e7" sheetId="1" r:id="rId1"/>
@@ -108,8 +108,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -713,35 +713,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1172,7 +1172,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G59" sqref="G59:G61"/>
     </sheetView>
   </sheetViews>
@@ -1183,8 +1183,8 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.58203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1206,10 +1206,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1232,11 +1232,11 @@
       <c r="F2">
         <v>7.0125012</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f t="shared" ref="G2" si="0">AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>AVERAGE(F2:F4)</f>
         <v>7.0116845000000003</v>
       </c>
@@ -1260,8 +1260,8 @@
       <c r="F3">
         <v>7.0148767999999997</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1282,8 +1282,8 @@
       <c r="F4">
         <v>7.0076755000000004</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1304,11 +1304,11 @@
       <c r="F5">
         <v>4.0387912000000004</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <f t="shared" ref="G5" si="1">AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>AVERAGE(F5:F7)</f>
         <v>4.0218264666666661</v>
       </c>
@@ -1332,8 +1332,8 @@
       <c r="F6">
         <v>4.0059353</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1354,8 +1354,8 @@
       <c r="F7">
         <v>4.0207528999999997</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1376,11 +1376,11 @@
       <c r="F8">
         <v>5.0091576</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f t="shared" ref="G8" si="2">AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>AVERAGE(F8:F10)</f>
         <v>5.0365396666666671</v>
       </c>
@@ -1404,8 +1404,8 @@
       <c r="F9">
         <v>5.0492233999999998</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1426,8 +1426,8 @@
       <c r="F10">
         <v>5.0512379999999997</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1448,11 +1448,11 @@
       <c r="F11">
         <v>6.0183647000000002</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <f t="shared" ref="G11" si="3">AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f>AVERAGE(F11:F13)</f>
         <v>11.028968766666667</v>
       </c>
@@ -1476,8 +1476,8 @@
       <c r="F12">
         <v>13.0552218</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1498,8 +1498,8 @@
       <c r="F13">
         <v>14.0133198</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1520,11 +1520,11 @@
       <c r="F14">
         <v>4.3478900000000001E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <f t="shared" ref="G14" si="4">AVERAGE(E14:E16)</f>
         <v>9999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f>AVERAGE(F14:F16)</f>
         <v>3.8812766666666672E-2</v>
       </c>
@@ -1548,8 +1548,8 @@
       <c r="F15">
         <v>3.8330599999999999E-2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1570,8 +1570,8 @@
       <c r="F16">
         <v>3.4628800000000001E-2</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1592,11 +1592,11 @@
       <c r="F17">
         <v>7.0095641999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f t="shared" ref="G17" si="5">AVERAGE(E17:E19)</f>
         <v>105907405</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f>AVERAGE(F17:F19)</f>
         <v>5.3742961666666673</v>
       </c>
@@ -1620,8 +1620,8 @@
       <c r="F18">
         <v>5.0542894</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1642,8 +1642,8 @@
       <c r="F19">
         <v>4.0590349000000003</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1664,11 +1664,11 @@
       <c r="F20">
         <v>8.0658759999999994</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <f t="shared" ref="G20" si="6">AVERAGE(E20:E22)</f>
         <v>220101636</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <f>AVERAGE(F20:F22)</f>
         <v>8.0628804333333317</v>
       </c>
@@ -1692,8 +1692,8 @@
       <c r="F21">
         <v>8.0770172999999996</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1714,8 +1714,8 @@
       <c r="F22">
         <v>8.0457479999999997</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1736,11 +1736,11 @@
       <c r="F23">
         <v>3.0534257999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <f t="shared" ref="G23" si="7">AVERAGE(E23:E25)</f>
         <v>114434624</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <f>AVERAGE(F23:F25)</f>
         <v>3.0363753</v>
       </c>
@@ -1764,8 +1764,8 @@
       <c r="F24">
         <v>3.0289633</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1786,8 +1786,8 @@
       <c r="F25">
         <v>3.0267368000000001</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1808,11 +1808,11 @@
       <c r="F26">
         <v>4.0102127000000003</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <f t="shared" ref="G26" si="8">AVERAGE(E26:E28)</f>
         <v>133700913</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f>AVERAGE(F26:F28)</f>
         <v>3.6997755333333338</v>
       </c>
@@ -1836,8 +1836,8 @@
       <c r="F27">
         <v>3.0890792999999999</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1858,8 +1858,8 @@
       <c r="F28">
         <v>4.0000346000000002</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1880,11 +1880,11 @@
       <c r="F29">
         <v>3.0917021999999998</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f t="shared" ref="G29" si="9">AVERAGE(E29:E31)</f>
         <v>304914467</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f>AVERAGE(F29:F31)</f>
         <v>3.0944406999999998</v>
       </c>
@@ -1908,8 +1908,8 @@
       <c r="F30">
         <v>3.0923212000000002</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1930,8 +1930,8 @@
       <c r="F31">
         <v>3.0992986999999999</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1952,11 +1952,11 @@
       <c r="F32">
         <v>8.0875923000000007</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="10">
         <f t="shared" ref="G32" si="10">AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f>AVERAGE(F32:F34)</f>
         <v>7.7326930666666671</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="F33">
         <v>7.0571538</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2002,8 +2002,8 @@
       <c r="F34">
         <v>8.0533330999999997</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2024,11 +2024,11 @@
       <c r="F35">
         <v>9.0233878999999995</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="10">
         <f t="shared" ref="G35" si="11">AVERAGE(E35:E37)</f>
         <v>1073741824</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f>AVERAGE(F35:F37)</f>
         <v>8.3816395000000004</v>
       </c>
@@ -2052,8 +2052,8 @@
       <c r="F36">
         <v>8.0764023999999992</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2074,8 +2074,8 @@
       <c r="F37">
         <v>8.0451282000000006</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2096,11 +2096,11 @@
       <c r="F38">
         <v>7.0849497000000001</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f t="shared" ref="G38" si="12">AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0752494000000006</v>
       </c>
@@ -2124,8 +2124,8 @@
       <c r="F39">
         <v>7.0642908000000002</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -2146,8 +2146,8 @@
       <c r="F40">
         <v>7.0765076999999996</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -2168,11 +2168,11 @@
       <c r="F41">
         <v>7.0254513999999997</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="10">
         <f t="shared" ref="G41" si="13">AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0592663666666668</v>
       </c>
@@ -2196,8 +2196,8 @@
       <c r="F42">
         <v>7.0640473999999998</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2218,8 +2218,8 @@
       <c r="F43">
         <v>7.0883003000000002</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -2240,11 +2240,11 @@
       <c r="F44">
         <v>7.0668660000000001</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="10">
         <f t="shared" ref="G44" si="14">AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <f>AVERAGE(F44:F46)</f>
         <v>7.3958796333333341</v>
       </c>
@@ -2268,8 +2268,8 @@
       <c r="F45">
         <v>7.0704332000000001</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -2290,8 +2290,8 @@
       <c r="F46">
         <v>8.0503397000000003</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2312,11 +2312,11 @@
       <c r="F47">
         <v>10.045237800000001</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f t="shared" ref="G47" si="15">AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <f>AVERAGE(F47:F49)</f>
         <v>10.018053866666667</v>
       </c>
@@ -2340,8 +2340,8 @@
       <c r="F48">
         <v>10.0042993</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -2362,8 +2362,8 @@
       <c r="F49">
         <v>10.0046245</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2384,11 +2384,11 @@
       <c r="F50">
         <v>7.0770200000000001</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="10">
         <f t="shared" ref="G50" si="16">AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <f>AVERAGE(F50:F52)</f>
         <v>7.0677090666666667</v>
       </c>
@@ -2412,8 +2412,8 @@
       <c r="F51">
         <v>7.0624218000000001</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -2434,8 +2434,8 @@
       <c r="F52">
         <v>7.0636853999999998</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2456,11 +2456,11 @@
       <c r="F53">
         <v>7.0466509000000004</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="10">
         <f t="shared" ref="G53" si="17">AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <f>AVERAGE(F53:F55)</f>
         <v>7.0518404666666656</v>
       </c>
@@ -2484,8 +2484,8 @@
       <c r="F54">
         <v>7.0430630000000001</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -2506,8 +2506,8 @@
       <c r="F55">
         <v>7.0658075</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -2528,11 +2528,11 @@
       <c r="F56">
         <v>13.006866</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <f t="shared" ref="G56" si="18">AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f>AVERAGE(F56:F58)</f>
         <v>11.710888599999999</v>
       </c>
@@ -2556,8 +2556,8 @@
       <c r="F57">
         <v>11.0269029</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="10"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -2578,8 +2578,8 @@
       <c r="F58">
         <v>11.0988969</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2600,11 +2600,11 @@
       <c r="F59">
         <v>5.4139699999999999E-2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="10">
         <f t="shared" ref="G59" si="19">AVERAGE(E59:E61)</f>
         <v>9999999</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <f>AVERAGE(F59:F61)</f>
         <v>5.4276033333333334E-2</v>
       </c>
@@ -2628,8 +2628,8 @@
       <c r="F60">
         <v>5.3629200000000002E-2</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2650,8 +2650,8 @@
       <c r="F61">
         <v>5.5059200000000003E-2</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2672,11 +2672,11 @@
       <c r="F62">
         <v>12.013462799999999</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="10">
         <f t="shared" ref="G62" si="20">AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <f>AVERAGE(F62:F64)</f>
         <v>11.695745866666668</v>
       </c>
@@ -2700,8 +2700,8 @@
       <c r="F63">
         <v>13.0022322</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2722,8 +2722,8 @@
       <c r="F64">
         <v>10.071542600000001</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -2734,12 +2734,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H56:H58"/>
     <mergeCell ref="H59:H61"/>
@@ -2756,26 +2770,12 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -2792,8 +2792,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2803,8 +2803,8 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,14 +2826,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2852,16 +2852,16 @@
       <c r="F2">
         <v>6.0690442000000004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f t="shared" ref="G2" si="0">AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>AVERAGE(F2:F4)</f>
         <v>6.0775342666666674</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2880,10 +2880,10 @@
       <c r="F3">
         <v>6.0752445000000002</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2902,8 +2902,8 @@
       <c r="F4">
         <v>6.0883140999999998</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2924,11 +2924,11 @@
       <c r="F5">
         <v>4.0087073999999996</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <f t="shared" ref="G5" si="1">AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>AVERAGE(F5:F7)</f>
         <v>4.0313111666666659</v>
       </c>
@@ -2952,8 +2952,8 @@
       <c r="F6">
         <v>4.0309004000000002</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2974,10 +2974,10 @@
       <c r="F7">
         <v>4.0543256999999997</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2996,16 +2996,16 @@
       <c r="F8">
         <v>4.0173405999999998</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f t="shared" ref="G8" si="2">AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>AVERAGE(F8:F10)</f>
         <v>6.7075359666666658</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3024,10 +3024,10 @@
       <c r="F9">
         <v>4.0169037000000003</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3046,10 +3046,10 @@
       <c r="F10">
         <v>12.088363599999999</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3068,16 +3068,16 @@
       <c r="F11">
         <v>13.0728054</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <f t="shared" ref="G11" si="3">AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f>AVERAGE(F11:F13)</f>
         <v>13.070870233333332</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3096,10 +3096,10 @@
       <c r="F12">
         <v>13.066137899999999</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3118,8 +3118,8 @@
       <c r="F13">
         <v>13.0736674</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3140,11 +3140,11 @@
       <c r="F14">
         <v>4.2788000000000001E-3</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <f t="shared" ref="G14" si="4">AVERAGE(E14:E16)</f>
         <v>999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f>AVERAGE(F14:F16)</f>
         <v>4.3042000000000002E-3</v>
       </c>
@@ -3168,8 +3168,8 @@
       <c r="F15">
         <v>4.3280999999999997E-3</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3190,10 +3190,10 @@
       <c r="F16">
         <v>4.3057E-3</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3212,16 +3212,16 @@
       <c r="F17">
         <v>7.8823699999999997E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f t="shared" ref="G17" si="5">AVERAGE(E17:E19)</f>
         <v>12490802.333333334</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f>AVERAGE(F17:F19)</f>
         <v>6.7337233333333343E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3240,10 +3240,10 @@
       <c r="F18">
         <v>6.4471500000000001E-2</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3262,10 +3262,10 @@
       <c r="F19">
         <v>5.8716499999999998E-2</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3284,16 +3284,16 @@
       <c r="F20">
         <v>3.0169389</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <f t="shared" ref="G20" si="6">AVERAGE(E20:E22)</f>
         <v>18674575.333333332</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <f>AVERAGE(F20:F22)</f>
         <v>3.0139125666666668</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3312,10 +3312,10 @@
       <c r="F21">
         <v>3.0110573</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3334,8 +3334,8 @@
       <c r="F22">
         <v>3.0137415000000001</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3356,11 +3356,11 @@
       <c r="F23">
         <v>1.0925799</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <f t="shared" ref="G23" si="7">AVERAGE(E23:E25)</f>
         <v>9884992</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <f>AVERAGE(F23:F25)</f>
         <v>1.0926069333333333</v>
       </c>
@@ -3384,8 +3384,8 @@
       <c r="F24">
         <v>1.0915849</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3406,10 +3406,10 @@
       <c r="F25">
         <v>1.093656</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3428,16 +3428,16 @@
       <c r="F26">
         <v>1.0946473000000001</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <f t="shared" ref="G26" si="8">AVERAGE(E26:E28)</f>
         <v>11888393</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f>AVERAGE(F26:F28)</f>
         <v>1.0960243666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3456,10 +3456,10 @@
       <c r="F27">
         <v>1.0942259000000001</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3478,10 +3478,10 @@
       <c r="F28">
         <v>1.0991998999999999</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3500,16 +3500,16 @@
       <c r="F29">
         <v>1.0928742</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f t="shared" ref="G29" si="9">AVERAGE(E29:E31)</f>
         <v>25436636.333333332</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f>AVERAGE(F29:F31)</f>
         <v>1.0904193666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3528,10 +3528,10 @@
       <c r="F30">
         <v>1.0922487999999999</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3550,8 +3550,8 @@
       <c r="F31">
         <v>1.0861350999999999</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -3572,11 +3572,11 @@
       <c r="F32">
         <v>8.0319774000000006</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="10">
         <f t="shared" ref="G32" si="10">AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f>AVERAGE(F32:F34)</f>
         <v>8.0286405333333342</v>
       </c>
@@ -3600,8 +3600,8 @@
       <c r="F33">
         <v>8.0275379999999998</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -3622,10 +3622,10 @@
       <c r="F34">
         <v>8.0264062000000003</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3644,16 +3644,16 @@
       <c r="F35">
         <v>8.0206654999999998</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="10">
         <f t="shared" ref="G35" si="11">AVERAGE(E35:E37)</f>
         <v>1073741824</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f>AVERAGE(F35:F37)</f>
         <v>7.7106437666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3672,10 +3672,10 @@
       <c r="F36">
         <v>8.0160620999999992</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3694,10 +3694,10 @@
       <c r="F37">
         <v>7.0952036999999999</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3716,16 +3716,16 @@
       <c r="F38">
         <v>7.0650202000000002</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f t="shared" ref="G38" si="12">AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0481626999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3744,10 +3744,10 @@
       <c r="F39">
         <v>7.0405841999999996</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3766,8 +3766,8 @@
       <c r="F40">
         <v>7.0388837000000004</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -3788,11 +3788,11 @@
       <c r="F41">
         <v>7.0323634999999998</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="10">
         <f t="shared" ref="G41" si="13">AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0413974000000001</v>
       </c>
@@ -3816,8 +3816,8 @@
       <c r="F42">
         <v>7.0454556999999998</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -3838,10 +3838,10 @@
       <c r="F43">
         <v>7.046373</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3860,16 +3860,16 @@
       <c r="F44">
         <v>7.0400691999999996</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="10">
         <f t="shared" ref="G44" si="14">AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <f>AVERAGE(F44:F46)</f>
         <v>7.0429902999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3888,10 +3888,10 @@
       <c r="F45">
         <v>7.0436415999999999</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3910,10 +3910,10 @@
       <c r="F46">
         <v>7.0452601000000001</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3932,16 +3932,16 @@
       <c r="F47">
         <v>1.0681402</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f t="shared" ref="G47" si="15">AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <f>AVERAGE(F47:F49)</f>
         <v>1.0678673333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3960,10 +3960,10 @@
       <c r="F48">
         <v>1.0673632</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="9"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3982,8 +3982,8 @@
       <c r="F49">
         <v>1.0680985999999999</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -4004,11 +4004,11 @@
       <c r="F50">
         <v>6.4830600000000002E-2</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="10">
         <f t="shared" ref="G50" si="16">AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <f>AVERAGE(F50:F52)</f>
         <v>6.5257699999999988E-2</v>
       </c>
@@ -4032,8 +4032,8 @@
       <c r="F51">
         <v>6.5026200000000006E-2</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -4054,10 +4054,10 @@
       <c r="F52">
         <v>6.5916299999999997E-2</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -4076,16 +4076,16 @@
       <c r="F53">
         <v>6.94713E-2</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="10">
         <f t="shared" ref="G53" si="17">AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <f>AVERAGE(F53:F55)</f>
         <v>7.0738866666666664E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -4104,10 +4104,10 @@
       <c r="F54">
         <v>7.6186100000000007E-2</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -4126,10 +4126,10 @@
       <c r="F55">
         <v>6.6559199999999999E-2</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -4148,16 +4148,16 @@
       <c r="F56">
         <v>14.038278399999999</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <f t="shared" ref="G56" si="18">AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f>AVERAGE(F56:F58)</f>
         <v>13.703621699999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4176,10 +4176,10 @@
       <c r="F57">
         <v>13.070034400000001</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -4198,8 +4198,8 @@
       <c r="F58">
         <v>14.0025523</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -4220,11 +4220,11 @@
       <c r="F59">
         <v>5.9189999999999998E-3</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="10">
         <f t="shared" ref="G59" si="19">AVERAGE(E59:E61)</f>
         <v>999999</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <f>AVERAGE(F59:F61)</f>
         <v>6.0183333333333339E-3</v>
       </c>
@@ -4248,8 +4248,8 @@
       <c r="F60">
         <v>6.2192000000000002E-3</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -4270,10 +4270,10 @@
       <c r="F61">
         <v>5.9167999999999998E-3</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4292,16 +4292,16 @@
       <c r="F62">
         <v>10.0870876</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="10">
         <f t="shared" ref="G62" si="20">AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <f>AVERAGE(F62:F64)</f>
         <v>11.389746066666667</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4320,10 +4320,10 @@
       <c r="F63">
         <v>11.0579585</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -4342,60 +4342,60 @@
       <c r="F64">
         <v>13.0241921</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="almost rising"/>
+        <filter val="random"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -4423,8 +4423,8 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4446,14 +4446,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4472,16 +4472,16 @@
       <c r="F2">
         <v>14.028219</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E4)</f>
         <v>1073741824</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>AVERAGE(F2:F4)</f>
         <v>13.730024366666669</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4500,10 +4500,10 @@
       <c r="F3">
         <v>14.0892739</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4522,8 +4522,8 @@
       <c r="F4">
         <v>13.072580200000001</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4544,11 +4544,11 @@
       <c r="F5">
         <v>12.0502176</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <f>AVERAGE(E5:E7)</f>
         <v>1073741824</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>AVERAGE(F5:F7)</f>
         <v>12.058050733333332</v>
       </c>
@@ -4572,8 +4572,8 @@
       <c r="F6">
         <v>12.0874115</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4594,10 +4594,10 @@
       <c r="F7">
         <v>12.0365231</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4616,16 +4616,16 @@
       <c r="F8">
         <v>12.082176799999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f>AVERAGE(E8:E10)</f>
         <v>1073741824</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>AVERAGE(F8:F10)</f>
         <v>12.082078333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4644,10 +4644,10 @@
       <c r="F9">
         <v>12.068728999999999</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4666,10 +4666,10 @@
       <c r="F10">
         <v>12.0953292</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4688,16 +4688,16 @@
       <c r="F11">
         <v>13.0599697</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <f>AVERAGE(E11:E13)</f>
         <v>1073741824</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f>AVERAGE(F11:F13)</f>
         <v>13.070796666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4716,10 +4716,10 @@
       <c r="F12">
         <v>13.0784167</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4738,8 +4738,8 @@
       <c r="F13">
         <v>13.074003599999999</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4760,11 +4760,11 @@
       <c r="F14">
         <v>1.738E-4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <f>AVERAGE(E14:E16)</f>
         <v>99999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f>AVERAGE(F14:F16)</f>
         <v>3.0176666666666667E-4</v>
       </c>
@@ -4788,8 +4788,8 @@
       <c r="F15">
         <v>3.6680000000000003E-4</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4810,10 +4810,10 @@
       <c r="F16">
         <v>3.6469999999999997E-4</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4832,16 +4832,16 @@
       <c r="F17">
         <v>6.7993000000000003E-3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f>AVERAGE(E17:E19)</f>
         <v>1229617.6666666667</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f>AVERAGE(F17:F19)</f>
         <v>6.6476E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4860,10 +4860,10 @@
       <c r="F18">
         <v>5.5985999999999996E-3</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4882,10 +4882,10 @@
       <c r="F19">
         <v>7.5449000000000002E-3</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4904,16 +4904,16 @@
       <c r="F20">
         <v>2.5747699999999998E-2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <f>AVERAGE(E20:E22)</f>
         <v>1536374</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <f>AVERAGE(F20:F22)</f>
         <v>2.6943433333333332E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4932,10 +4932,10 @@
       <c r="F21">
         <v>2.7601299999999999E-2</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4954,8 +4954,8 @@
       <c r="F22">
         <v>2.74813E-2</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -4976,11 +4976,11 @@
       <c r="F23">
         <v>1.6707199999999998E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <f>AVERAGE(E23:E25)</f>
         <v>815024</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <f>AVERAGE(F23:F25)</f>
         <v>1.6817300000000004E-2</v>
       </c>
@@ -5004,8 +5004,8 @@
       <c r="F24">
         <v>1.6965600000000001E-2</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5026,10 +5026,10 @@
       <c r="F25">
         <v>1.6779100000000002E-2</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5048,16 +5048,16 @@
       <c r="F26">
         <v>1.6865000000000002E-2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <f>AVERAGE(E26:E28)</f>
         <v>998855.66666666663</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f>AVERAGE(F26:F28)</f>
         <v>1.7265700000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5076,10 +5076,10 @@
       <c r="F27">
         <v>1.7286599999999999E-2</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -5098,10 +5098,10 @@
       <c r="F28">
         <v>1.7645500000000001E-2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5120,16 +5120,16 @@
       <c r="F29">
         <v>1.56023E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f>AVERAGE(E29:E31)</f>
         <v>2124602.6666666665</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f>AVERAGE(F29:F31)</f>
         <v>1.5638266666666668E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5148,10 +5148,10 @@
       <c r="F30">
         <v>1.54798E-2</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5170,8 +5170,8 @@
       <c r="F31">
         <v>1.5832700000000002E-2</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -5192,11 +5192,11 @@
       <c r="F32">
         <v>7.0873485000000001</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="10">
         <f>AVERAGE(E32:E34)</f>
         <v>1073741824</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f>AVERAGE(F32:F34)</f>
         <v>7.0887216999999998</v>
       </c>
@@ -5220,8 +5220,8 @@
       <c r="F33">
         <v>7.0911182999999998</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -5242,10 +5242,10 @@
       <c r="F34">
         <v>7.0876982999999996</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -5264,16 +5264,16 @@
       <c r="F35">
         <v>7.0809534000000003</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="10">
         <f>AVERAGE(E35:E37)</f>
         <v>828325880.33333337</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f>AVERAGE(F35:F37)</f>
         <v>6.7407239666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -5292,10 +5292,10 @@
       <c r="F36">
         <v>5.0989693000000003</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -5314,10 +5314,10 @@
       <c r="F37">
         <v>8.0422492000000005</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -5336,16 +5336,16 @@
       <c r="F38">
         <v>7.0276953000000004</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f>AVERAGE(E38:E40)</f>
         <v>1073741824</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <f>AVERAGE(F38:F40)</f>
         <v>7.0274220000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -5364,10 +5364,10 @@
       <c r="F39">
         <v>7.0359800999999997</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -5386,8 +5386,8 @@
       <c r="F40">
         <v>7.0185905999999996</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -5408,11 +5408,11 @@
       <c r="F41">
         <v>7.0344543000000002</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="10">
         <f>AVERAGE(E41:E43)</f>
         <v>1073741824</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f>AVERAGE(F41:F43)</f>
         <v>7.0315838333333334</v>
       </c>
@@ -5436,8 +5436,8 @@
       <c r="F42">
         <v>7.0239824999999998</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -5458,10 +5458,10 @@
       <c r="F43">
         <v>7.0363147000000001</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -5480,16 +5480,16 @@
       <c r="F44">
         <v>7.0221710000000002</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="10">
         <f>AVERAGE(E44:E46)</f>
         <v>1073741824</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <f>AVERAGE(F44:F46)</f>
         <v>7.0196128333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -5508,10 +5508,10 @@
       <c r="F45">
         <v>7.0224663999999999</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -5530,10 +5530,10 @@
       <c r="F46">
         <v>7.0142011000000002</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -5552,16 +5552,16 @@
       <c r="F47">
         <v>1.4073E-2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <f>AVERAGE(F47:F49)</f>
         <v>1.4345200000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -5580,10 +5580,10 @@
       <c r="F48">
         <v>1.4605399999999999E-2</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="9"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -5602,8 +5602,8 @@
       <c r="F49">
         <v>1.4357200000000001E-2</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -5624,11 +5624,11 @@
       <c r="F50">
         <v>5.4318999999999999E-3</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="10">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <f>AVERAGE(F50:F52)</f>
         <v>5.4246333333333339E-3</v>
       </c>
@@ -5652,8 +5652,8 @@
       <c r="F51">
         <v>5.3883999999999998E-3</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -5674,10 +5674,10 @@
       <c r="F52">
         <v>5.4536000000000003E-3</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -5696,16 +5696,16 @@
       <c r="F53">
         <v>5.4311999999999997E-3</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="10">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <f>AVERAGE(F53:F55)</f>
         <v>6.3694000000000008E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -5724,10 +5724,10 @@
       <c r="F54">
         <v>8.4468000000000008E-3</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -5746,10 +5746,10 @@
       <c r="F55">
         <v>5.2302E-3</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5768,16 +5768,16 @@
       <c r="F56">
         <v>10.0980153</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f>AVERAGE(F56:F58)</f>
         <v>11.709166033333334</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -5796,10 +5796,10 @@
       <c r="F57">
         <v>12.0063169</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -5818,8 +5818,8 @@
       <c r="F58">
         <v>13.0231659</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -5840,11 +5840,11 @@
       <c r="F59">
         <v>4.394E-4</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="10">
         <f>AVERAGE(E59:E61)</f>
         <v>99999</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <f>AVERAGE(F59:F61)</f>
         <v>3.8516666666666663E-4</v>
       </c>
@@ -5868,8 +5868,8 @@
       <c r="F60">
         <v>4.9580000000000002E-4</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -5890,10 +5890,10 @@
       <c r="F61">
         <v>2.2029999999999999E-4</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -5912,16 +5912,16 @@
       <c r="F62">
         <v>12.029726699999999</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="10">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <f>AVERAGE(F62:F64)</f>
         <v>11.379926566666667</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -5940,10 +5940,10 @@
       <c r="F63">
         <v>11.0494725</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -5962,34 +5962,28 @@
       <c r="F64">
         <v>11.0605805</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="almost rising"/>
+        <filter val="random"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="H35:H37"/>
     <mergeCell ref="G2:G4"/>
@@ -6006,16 +6000,22 @@
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -6043,8 +6043,8 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -6066,14 +6066,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6092,16 +6092,16 @@
       <c r="F2">
         <v>3.0086871999999998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E4)</f>
         <v>49995000</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <f>AVERAGE(F2:F4)</f>
         <v>2.7028355333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6120,10 +6120,10 @@
       <c r="F3">
         <v>2.0950410000000002</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6142,8 +6142,8 @@
       <c r="F4">
         <v>3.0047784000000002</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6164,11 +6164,11 @@
       <c r="F5">
         <v>1.0819935000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <f>AVERAGE(E5:E7)</f>
         <v>49995000</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f>AVERAGE(F5:F7)</f>
         <v>1.0841984333333332</v>
       </c>
@@ -6192,8 +6192,8 @@
       <c r="F6">
         <v>1.0791713000000001</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6214,10 +6214,10 @@
       <c r="F7">
         <v>1.0914305</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6236,16 +6236,16 @@
       <c r="F8">
         <v>1.0915992999999999</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f>AVERAGE(E8:E10)</f>
         <v>49995000</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f>AVERAGE(F8:F10)</f>
         <v>1.0867183999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6264,10 +6264,10 @@
       <c r="F9">
         <v>1.0850242000000001</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6286,10 +6286,10 @@
       <c r="F10">
         <v>1.0835317</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6308,16 +6308,16 @@
       <c r="F11">
         <v>1.0362203999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <f>AVERAGE(E11:E13)</f>
         <v>25049776.666666668</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f>AVERAGE(F11:F13)</f>
         <v>1.0367352999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6336,10 +6336,10 @@
       <c r="F12">
         <v>1.0362562</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6358,8 +6358,8 @@
       <c r="F13">
         <v>1.0377293000000001</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6380,11 +6380,11 @@
       <c r="F14">
         <v>3.6999999999999998E-5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="10">
         <f>AVERAGE(E14:E16)</f>
         <v>9999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f>AVERAGE(F14:F16)</f>
         <v>3.6699999999999998E-5</v>
       </c>
@@ -6408,8 +6408,8 @@
       <c r="F15">
         <v>3.6600000000000002E-5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6430,10 +6430,10 @@
       <c r="F16">
         <v>3.65E-5</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6452,16 +6452,16 @@
       <c r="F17">
         <v>6.2149999999999998E-4</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="10">
         <f>AVERAGE(E17:E19)</f>
         <v>120081</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f>AVERAGE(F17:F19)</f>
         <v>6.6629999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6480,10 +6480,10 @@
       <c r="F18">
         <v>6.5260000000000003E-4</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6502,10 +6502,10 @@
       <c r="F19">
         <v>7.2480000000000005E-4</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6524,16 +6524,16 @@
       <c r="F20">
         <v>2.3157999999999998E-3</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <f>AVERAGE(E20:E22)</f>
         <v>120438.66666666667</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <f>AVERAGE(F20:F22)</f>
         <v>2.2698999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6552,10 +6552,10 @@
       <c r="F21">
         <v>2.2407999999999998E-3</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6574,8 +6574,8 @@
       <c r="F22">
         <v>2.2531000000000001E-3</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6596,11 +6596,11 @@
       <c r="F23">
         <v>1.57E-3</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="10">
         <f>AVERAGE(E23:E25)</f>
         <v>64608</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <f>AVERAGE(F23:F25)</f>
         <v>1.5501999999999998E-3</v>
       </c>
@@ -6624,8 +6624,8 @@
       <c r="F24">
         <v>1.5357999999999999E-3</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6646,10 +6646,10 @@
       <c r="F25">
         <v>1.5448E-3</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6668,16 +6668,16 @@
       <c r="F26">
         <v>1.603E-3</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="10">
         <f>AVERAGE(E26:E28)</f>
         <v>83297.333333333328</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f>AVERAGE(F26:F28)</f>
         <v>1.5884333333333334E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -6696,10 +6696,10 @@
       <c r="F27">
         <v>1.5865E-3</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -6718,10 +6718,10 @@
       <c r="F28">
         <v>1.5758E-3</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -6740,16 +6740,16 @@
       <c r="F29">
         <v>1.2928E-3</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f>AVERAGE(E29:E31)</f>
         <v>166669.66666666666</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f>AVERAGE(F29:F31)</f>
         <v>1.2942666666666666E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6768,10 +6768,10 @@
       <c r="F30">
         <v>1.3189E-3</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -6790,8 +6790,8 @@
       <c r="F31">
         <v>1.2711000000000001E-3</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -6812,11 +6812,11 @@
       <c r="F32">
         <v>2.0837854</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="10">
         <f>AVERAGE(E32:E34)</f>
         <v>50005000</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f>AVERAGE(F32:F34)</f>
         <v>2.0861580666666666</v>
       </c>
@@ -6840,8 +6840,8 @@
       <c r="F33">
         <v>2.0865596000000002</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -6862,10 +6862,10 @@
       <c r="F34">
         <v>2.0881292</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6884,16 +6884,16 @@
       <c r="F35">
         <v>5.3520699999999997E-2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="10">
         <f>AVERAGE(E35:E37)</f>
         <v>10540166.666666666</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f>AVERAGE(F35:F37)</f>
         <v>5.5785833333333333E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -6912,10 +6912,10 @@
       <c r="F36">
         <v>3.1666600000000003E-2</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -6934,10 +6934,10 @@
       <c r="F37">
         <v>8.2170199999999999E-2</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -6956,16 +6956,16 @@
       <c r="F38">
         <v>2.0433838999999998</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f>AVERAGE(E38:E40)</f>
         <v>49995000</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <f>AVERAGE(F38:F40)</f>
         <v>2.0427861666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -6984,10 +6984,10 @@
       <c r="F39">
         <v>2.0420281</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="9"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -7006,8 +7006,8 @@
       <c r="F40">
         <v>2.0429465000000002</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -7028,11 +7028,11 @@
       <c r="F41">
         <v>2.0420753999999999</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="10">
         <f>AVERAGE(E41:E43)</f>
         <v>49995000</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f>AVERAGE(F41:F43)</f>
         <v>2.0429194666666666</v>
       </c>
@@ -7056,8 +7056,8 @@
       <c r="F42">
         <v>2.0432532999999999</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -7078,10 +7078,10 @@
       <c r="F43">
         <v>2.0434296999999999</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="10"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -7100,16 +7100,16 @@
       <c r="F44">
         <v>2.0424547</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="10">
         <f>AVERAGE(E44:E46)</f>
         <v>49995000</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <f>AVERAGE(F44:F46)</f>
         <v>2.0427607666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -7128,10 +7128,10 @@
       <c r="F45">
         <v>2.0430163000000001</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="10"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -7150,10 +7150,10 @@
       <c r="F46">
         <v>2.0428112999999999</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="10"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -7172,16 +7172,16 @@
       <c r="F47">
         <v>1.8954E-3</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <f>AVERAGE(F47:F49)</f>
         <v>1.3832333333333334E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -7200,10 +7200,10 @@
       <c r="F48">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="9"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -7222,8 +7222,8 @@
       <c r="F49">
         <v>8.7429999999999995E-4</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -7244,11 +7244,11 @@
       <c r="F50">
         <v>4.057E-4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="10">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <f>AVERAGE(F50:F52)</f>
         <v>4.2886666666666672E-4</v>
       </c>
@@ -7272,8 +7272,8 @@
       <c r="F51">
         <v>4.4729999999999998E-4</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -7294,10 +7294,10 @@
       <c r="F52">
         <v>4.3360000000000002E-4</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -7316,16 +7316,16 @@
       <c r="F53">
         <v>4.615E-4</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="10">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <f>AVERAGE(F53:F55)</f>
         <v>4.5106666666666666E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -7344,10 +7344,10 @@
       <c r="F54">
         <v>4.4529999999999998E-4</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -7366,10 +7366,10 @@
       <c r="F55">
         <v>4.4640000000000001E-4</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="10"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7388,16 +7388,16 @@
       <c r="F56">
         <v>11.074100100000001</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f>AVERAGE(F56:F58)</f>
         <v>11.071494833333333</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -7416,10 +7416,10 @@
       <c r="F57">
         <v>11.0847684</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -7438,8 +7438,8 @@
       <c r="F58">
         <v>11.055616000000001</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -7460,11 +7460,11 @@
       <c r="F59">
         <v>5.9899999999999999E-5</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="10">
         <f>AVERAGE(E59:E61)</f>
         <v>9999</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <f>AVERAGE(F59:F61)</f>
         <v>5.3933333333333334E-5</v>
       </c>
@@ -7488,8 +7488,8 @@
       <c r="F60">
         <v>4.3099999999999997E-5</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -7510,10 +7510,10 @@
       <c r="F61">
         <v>5.8799999999999999E-5</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="10"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -7532,16 +7532,16 @@
       <c r="F62">
         <v>12.087991799999999</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="10">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <f>AVERAGE(F62:F64)</f>
         <v>10.738459533333332</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -7560,10 +7560,10 @@
       <c r="F63">
         <v>10.037884200000001</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -7582,28 +7582,34 @@
       <c r="F64">
         <v>10.089502599999999</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="almost rising"/>
+        <filter val="random"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H50:H52"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
@@ -7620,22 +7626,16 @@
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -7663,8 +7663,8 @@
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -7686,10 +7686,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7712,11 +7712,11 @@
       <c r="F2">
         <v>1.1322000000000001E-3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f>AVERAGE(E2:E4)</f>
         <v>499500</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="11">
         <f>AVERAGE(F2:F4)</f>
         <v>1.1406333333333334E-3</v>
       </c>
@@ -7740,8 +7740,8 @@
       <c r="F3">
         <v>1.1218999999999999E-3</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7762,8 +7762,8 @@
       <c r="F4">
         <v>1.1678000000000001E-3</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7784,11 +7784,11 @@
       <c r="F5">
         <v>7.2309999999999996E-4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <f>AVERAGE(E5:E7)</f>
         <v>499500</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="11">
         <f>AVERAGE(F5:F7)</f>
         <v>7.4243333333333329E-4</v>
       </c>
@@ -7812,8 +7812,8 @@
       <c r="F6">
         <v>8.0369999999999997E-4</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7834,8 +7834,8 @@
       <c r="F7">
         <v>7.0049999999999995E-4</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7856,11 +7856,11 @@
       <c r="F8">
         <v>8.6740000000000005E-4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="9">
         <f>AVERAGE(E8:E10)</f>
         <v>499500</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="11">
         <f>AVERAGE(F8:F10)</f>
         <v>8.3186666666666654E-4</v>
       </c>
@@ -7884,8 +7884,8 @@
       <c r="F9">
         <v>7.6559999999999996E-4</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7906,8 +7906,8 @@
       <c r="F10">
         <v>8.6260000000000004E-4</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7928,11 +7928,11 @@
       <c r="F11">
         <v>6.2350000000000003E-4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="9">
         <f>AVERAGE(E11:E13)</f>
         <v>255615.33333333334</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="11">
         <f>AVERAGE(F11:F13)</f>
         <v>6.5173333333333342E-4</v>
       </c>
@@ -7956,8 +7956,8 @@
       <c r="F12">
         <v>7.0830000000000003E-4</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7978,8 +7978,8 @@
       <c r="F13">
         <v>6.2339999999999997E-4</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8000,11 +8000,11 @@
       <c r="F14">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <f>AVERAGE(E14:E16)</f>
         <v>999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="11">
         <f>AVERAGE(F14:F16)</f>
         <v>1.5333333333333334E-6</v>
       </c>
@@ -8028,8 +8028,8 @@
       <c r="F15">
         <v>1.5E-6</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8050,8 +8050,8 @@
       <c r="F16">
         <v>1.5E-6</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8072,11 +8072,11 @@
       <c r="F17">
         <v>2.44E-5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <f>AVERAGE(E17:E19)</f>
         <v>10649</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="11">
         <f>AVERAGE(F17:F19)</f>
         <v>2.6466666666666665E-5</v>
       </c>
@@ -8100,8 +8100,8 @@
       <c r="F18">
         <v>3.5599999999999998E-5</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8122,8 +8122,8 @@
       <c r="F19">
         <v>1.9400000000000001E-5</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -8144,11 +8144,11 @@
       <c r="F20">
         <v>1.011E-4</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <f>AVERAGE(E20:E22)</f>
         <v>8714.6666666666661</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="11">
         <f>AVERAGE(F20:F22)</f>
         <v>9.6133333333333344E-5</v>
       </c>
@@ -8172,8 +8172,8 @@
       <c r="F21">
         <v>9.3900000000000006E-5</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8194,8 +8194,8 @@
       <c r="F22">
         <v>9.3399999999999993E-5</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8216,11 +8216,11 @@
       <c r="F23">
         <v>5.6799999999999998E-5</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="9">
         <f>AVERAGE(E23:E25)</f>
         <v>4932</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="11">
         <f>AVERAGE(F23:F25)</f>
         <v>5.4266666666666667E-5</v>
       </c>
@@ -8244,8 +8244,8 @@
       <c r="F24">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8266,8 +8266,8 @@
       <c r="F25">
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -8288,11 +8288,11 @@
       <c r="F26">
         <v>6.3E-5</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="9">
         <f>AVERAGE(E26:E28)</f>
         <v>6804</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="11">
         <f>AVERAGE(F26:F28)</f>
         <v>5.9999999999999995E-5</v>
       </c>
@@ -8316,8 +8316,8 @@
       <c r="F27">
         <v>5.8199999999999998E-5</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -8338,8 +8338,8 @@
       <c r="F28">
         <v>5.8799999999999999E-5</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -8360,11 +8360,11 @@
       <c r="F29">
         <v>1.3119999999999999E-4</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <f>AVERAGE(E29:E31)</f>
         <v>11757.666666666666</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="11">
         <f>AVERAGE(F29:F31)</f>
         <v>9.9233333333333338E-5</v>
       </c>
@@ -8388,8 +8388,8 @@
       <c r="F30">
         <v>8.6100000000000006E-5</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -8410,8 +8410,8 @@
       <c r="F31">
         <v>8.0400000000000003E-5</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -8432,11 +8432,11 @@
       <c r="F32">
         <v>1.1923000000000001E-3</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="9">
         <f>AVERAGE(E32:E34)</f>
         <v>500500</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="11">
         <f>AVERAGE(F32:F34)</f>
         <v>1.2150333333333333E-3</v>
       </c>
@@ -8460,8 +8460,8 @@
       <c r="F33">
         <v>1.2511E-3</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -8482,8 +8482,8 @@
       <c r="F34">
         <v>1.2017E-3</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -8504,11 +8504,11 @@
       <c r="F35">
         <v>3.3530000000000002E-4</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="9">
         <f>AVERAGE(E35:E37)</f>
         <v>121390.66666666667</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="11">
         <f>AVERAGE(F35:F37)</f>
         <v>2.6903333333333333E-4</v>
       </c>
@@ -8532,8 +8532,8 @@
       <c r="F36">
         <v>3.7090000000000002E-4</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -8554,8 +8554,8 @@
       <c r="F37">
         <v>1.009E-4</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -8576,11 +8576,11 @@
       <c r="F38">
         <v>1.5953E-3</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f>AVERAGE(E38:E40)</f>
         <v>499500</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="11">
         <f>AVERAGE(F38:F40)</f>
         <v>1.5891666666666667E-3</v>
       </c>
@@ -8604,8 +8604,8 @@
       <c r="F39">
         <v>1.5885000000000001E-3</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -8626,8 +8626,8 @@
       <c r="F40">
         <v>1.5837E-3</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -8648,11 +8648,11 @@
       <c r="F41">
         <v>1.5873E-3</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="9">
         <f>AVERAGE(E41:E43)</f>
         <v>499500</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="11">
         <f>AVERAGE(F41:F43)</f>
         <v>1.6281666666666667E-3</v>
       </c>
@@ -8676,8 +8676,8 @@
       <c r="F42">
         <v>1.5885000000000001E-3</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -8698,8 +8698,8 @@
       <c r="F43">
         <v>1.7087000000000001E-3</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -8720,11 +8720,11 @@
       <c r="F44">
         <v>1.6605999999999999E-3</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="9">
         <f>AVERAGE(E44:E46)</f>
         <v>499500</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="11">
         <f>AVERAGE(F44:F46)</f>
         <v>1.6012666666666668E-3</v>
       </c>
@@ -8748,8 +8748,8 @@
       <c r="F45">
         <v>1.5648999999999999E-3</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -8770,8 +8770,8 @@
       <c r="F46">
         <v>1.5782999999999999E-3</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -8792,11 +8792,11 @@
       <c r="F47">
         <v>5.1499999999999998E-5</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <f>AVERAGE(E47:E49)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="11">
         <f>AVERAGE(F47:F49)</f>
         <v>5.0899999999999997E-5</v>
       </c>
@@ -8820,8 +8820,8 @@
       <c r="F48">
         <v>5.0800000000000002E-5</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -8842,8 +8842,8 @@
       <c r="F49">
         <v>5.0399999999999999E-5</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -8864,11 +8864,11 @@
       <c r="F50">
         <v>1.5800000000000001E-5</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="9">
         <f>AVERAGE(E50:E52)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="11">
         <f>AVERAGE(F50:F52)</f>
         <v>1.5466666666666669E-5</v>
       </c>
@@ -8892,8 +8892,8 @@
       <c r="F51">
         <v>1.5400000000000002E-5</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="4"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -8914,8 +8914,8 @@
       <c r="F52">
         <v>1.52E-5</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -8936,11 +8936,11 @@
       <c r="F53">
         <v>1.63E-5</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="9">
         <f>AVERAGE(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="11">
         <f>AVERAGE(F53:F55)</f>
         <v>1.5933333333333332E-5</v>
       </c>
@@ -8964,8 +8964,8 @@
       <c r="F54">
         <v>1.5800000000000001E-5</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="4"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -8986,8 +8986,8 @@
       <c r="F55">
         <v>1.5699999999999999E-5</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -9008,11 +9008,11 @@
       <c r="F56">
         <v>7.0679952000000004</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <f>AVERAGE(E56:E58)</f>
         <v>1073741824</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="11">
         <f>AVERAGE(F56:F58)</f>
         <v>8.7398267000000001</v>
       </c>
@@ -9036,8 +9036,8 @@
       <c r="F57">
         <v>7.0730753999999996</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="4"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -9058,8 +9058,8 @@
       <c r="F58">
         <v>12.078409499999999</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -9080,11 +9080,11 @@
       <c r="F59">
         <v>4.4000000000000002E-6</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="9">
         <f>AVERAGE(E59:E61)</f>
         <v>999</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="11">
         <f>AVERAGE(F59:F61)</f>
         <v>3.7333333333333337E-6</v>
       </c>
@@ -9108,8 +9108,8 @@
       <c r="F60">
         <v>3.3000000000000002E-6</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="4"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -9130,8 +9130,8 @@
       <c r="F61">
         <v>3.4999999999999999E-6</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="4"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -9152,11 +9152,11 @@
       <c r="F62">
         <v>12.014736900000001</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="9">
         <f>AVERAGE(E62:E64)</f>
         <v>1073741824</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="11">
         <f>AVERAGE(F62:F64)</f>
         <v>11.397015633333334</v>
       </c>
@@ -9180,8 +9180,8 @@
       <c r="F63">
         <v>11.0792891</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="4"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -9202,8 +9202,8 @@
       <c r="F64">
         <v>11.0970209</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="4"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0001-0000-0400-000000000000}">
@@ -9214,48 +9214,48 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="42">
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
